--- a/SOLEDADE.xlsx
+++ b/SOLEDADE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gera-fichas\Comarcas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BD1A04A6-90B2-4544-9A41-97A1F11A562D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{ED7EA688-FE7A-47EF-9D9D-CBEC6C70D8F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1230,7 +1230,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="1" xr:uid="{30208123-F4BD-4C9D-A92C-4A34E6381A87}"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{B15F9858-66C0-4108-B9EE-C223D52ADFDC}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1260,10 +1260,10 @@
         <xdr:cNvPr id="2" name="Chart1" title="Gráfico">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7968C1D4-4747-44BF-BD3C-D2ED293D35EE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6B778AF-618F-483C-B3A1-8F0E5C661707}"/>
             </a:ext>
             <a:ext uri="GoogleSheetsCustomDataVersion1">
-              <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" pictureOfChart="1"/>
+              <go:sheetsCustomData xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:go="http://customooxmlschemas.google.com/" pictureOfChart="1"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1301,7 +1301,7 @@
         <xdr:cNvPr id="3" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BBC1C475-BBC8-4836-9BFD-42006F4304E1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C1A90B12-FAEB-475D-81D4-0A5FABC7FB76}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1364,7 +1364,7 @@
         <xdr:cNvPr id="4" name="Shape 2" title="Desenho">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5ADB945F-0C67-471A-BD5A-85F1A14BD440}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FBDBB8F0-0F6A-453B-9D11-13D237631EFC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1383,7 +1383,7 @@
           <xdr:cNvPr id="5" name="Shape 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14B09F78-D872-BA7F-C390-820D49A79769}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2DCE0842-2C34-6A3D-B77F-660973034015}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1432,7 +1432,7 @@
           <xdr:cNvPr id="6" name="Shape 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1611855-EFAD-C88A-60D3-16BDB1BD9316}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7EBB123D-11D6-34E6-0152-C26C6F1BBC91}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1451,7 +1451,7 @@
             <xdr:cNvPr id="7" name="Shape 6">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B8F6F7A-9B72-0140-3823-FEFA989DD7CF}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28793D17-75C9-2CCB-9F1C-A0381ADE2CE9}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1482,7 +1482,7 @@
             <xdr:cNvPr id="8" name="Shape 7">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB83207A-7B39-8975-47DA-369420633738}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80491EF5-F381-FB8B-0473-04BD90268B6C}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1513,7 +1513,7 @@
             <xdr:cNvPr id="9" name="Shape 8">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A518127-BC4B-D2AD-9400-16596B4FBF6A}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C96FDFA2-8994-1D82-3592-DD5FCB872026}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1556,7 +1556,7 @@
         <xdr:cNvPr id="10" name="image2.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{39CC60F1-069D-4963-9931-6D684129ABE1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B9F9DC27-3BE8-4655-B4C0-C86447D22C58}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1594,7 +1594,7 @@
         <xdr:cNvPr id="11" name="image1.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{90F2854B-43F6-459F-8015-903C393F735B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E890DEA8-498F-441B-8688-06E362BAD212}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1637,7 +1637,7 @@
         <xdr:cNvPr id="12" name="Imagem 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B69A8C6-1EDC-4152-BF79-C6703301E3AB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F207CE6-DE7C-4C65-9821-3491796670E0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1950,7 +1950,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3286CA4F-2216-455A-BCC4-82A808C39DED}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05409E9E-7195-4EED-957F-BF92EC10369B}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>

--- a/SOLEDADE.xlsx
+++ b/SOLEDADE.xlsx
@@ -8,25 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gera-fichas\Comarcas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ED7EA688-FE7A-47EF-9D9D-CBEC6C70D8F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FB8E47C6-E8A4-49A0-8DD8-EDA21D178339}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Paineis DARQ" sheetId="7" r:id="rId1"/>
+    <sheet name="PAINEIS DARQ" sheetId="6" r:id="rId1"/>
     <sheet name="DESFAZIMENTOS" sheetId="1" r:id="rId2"/>
     <sheet name="MATERIAIS-FORNECIDOS" sheetId="2" r:id="rId3"/>
     <sheet name="DATA-LIMITE-REQUISICOES" sheetId="3" r:id="rId4"/>
     <sheet name="CPIP" sheetId="4" r:id="rId5"/>
-    <sheet name="Recolhimento x Eliminacao" sheetId="5" r:id="rId6"/>
-    <sheet name="Desarquivamentos Pendentes" sheetId="6" r:id="rId7"/>
+    <sheet name="RECOLHIMENTO X ELIMINAÇÃO" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="741" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="737" uniqueCount="303">
   <si>
     <t>COMARCA</t>
   </si>
@@ -935,15 +934,6 @@
   </si>
   <si>
     <t>Não finalizou procedimentos de eliminação</t>
-  </si>
-  <si>
-    <t>PEDIDOS PENDENTES</t>
-  </si>
-  <si>
-    <t>%</t>
-  </si>
-  <si>
-    <t>SOLEDADE</t>
   </si>
 </sst>
 </file>
@@ -1141,7 +1131,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1210,27 +1200,12 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="1" xr:uid="{B15F9858-66C0-4108-B9EE-C223D52ADFDC}"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{948A7B2F-3EA4-49A2-B8B3-179565841593}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1260,10 +1235,10 @@
         <xdr:cNvPr id="2" name="Chart1" title="Gráfico">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6B778AF-618F-483C-B3A1-8F0E5C661707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{179AF14C-6284-4D1C-8C39-CFC12374156E}"/>
             </a:ext>
             <a:ext uri="GoogleSheetsCustomDataVersion1">
-              <go:sheetsCustomData xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:go="http://customooxmlschemas.google.com/" pictureOfChart="1"/>
+              <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" pictureOfChart="1"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1301,7 +1276,7 @@
         <xdr:cNvPr id="3" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C1A90B12-FAEB-475D-81D4-0A5FABC7FB76}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F83C3E0-9DFD-4CE4-9A87-2A1B8A2532A9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1364,7 +1339,7 @@
         <xdr:cNvPr id="4" name="Shape 2" title="Desenho">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FBDBB8F0-0F6A-453B-9D11-13D237631EFC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C2FC86E-FCC9-4A9C-808E-6DF921D90BB1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1383,7 +1358,7 @@
           <xdr:cNvPr id="5" name="Shape 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2DCE0842-2C34-6A3D-B77F-660973034015}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{23DAAA63-E0EE-457F-7306-24B212883879}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1432,7 +1407,7 @@
           <xdr:cNvPr id="6" name="Shape 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7EBB123D-11D6-34E6-0152-C26C6F1BBC91}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1F17500-439F-A684-A98D-E41A211003A0}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1451,7 +1426,7 @@
             <xdr:cNvPr id="7" name="Shape 6">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28793D17-75C9-2CCB-9F1C-A0381ADE2CE9}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17160152-0474-5B81-C109-D0BCDF0EB246}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1482,7 +1457,7 @@
             <xdr:cNvPr id="8" name="Shape 7">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80491EF5-F381-FB8B-0473-04BD90268B6C}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2322F87B-8959-D25F-EC76-B44A034989ED}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1513,7 +1488,7 @@
             <xdr:cNvPr id="9" name="Shape 8">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C96FDFA2-8994-1D82-3592-DD5FCB872026}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{90611D6B-1BFE-9A65-DA11-B1F20257887B}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1556,7 +1531,7 @@
         <xdr:cNvPr id="10" name="image2.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B9F9DC27-3BE8-4655-B4C0-C86447D22C58}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75E01364-44CB-4FBA-932D-659BC5DF7D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1594,7 +1569,7 @@
         <xdr:cNvPr id="11" name="image1.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E890DEA8-498F-441B-8688-06E362BAD212}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14724B10-DD0F-4CBB-8AA9-807CB7944E01}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1637,7 +1612,7 @@
         <xdr:cNvPr id="12" name="Imagem 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F207CE6-DE7C-4C65-9821-3491796670E0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7388EE64-355D-40D9-B16C-1DB837A9218F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1950,7 +1925,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05409E9E-7195-4EED-957F-BF92EC10369B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A4771CF-4835-4232-A81E-2BA7155ECA4B}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -1962,98 +1937,98 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="5" width="12.5703125" style="36"/>
-    <col min="6" max="6" width="2" style="36" customWidth="1"/>
-    <col min="7" max="16" width="13.42578125" style="36" customWidth="1"/>
-    <col min="17" max="16384" width="12.5703125" style="36"/>
+    <col min="1" max="5" width="12.5703125" style="31"/>
+    <col min="6" max="6" width="2" style="31" customWidth="1"/>
+    <col min="7" max="16" width="13.42578125" style="31" customWidth="1"/>
+    <col min="17" max="16384" width="12.5703125" style="31"/>
   </cols>
   <sheetData>
     <row r="1" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F1" s="35"/>
+      <c r="F1" s="30"/>
     </row>
     <row r="2" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F2" s="35"/>
+      <c r="F2" s="30"/>
     </row>
     <row r="3" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F3" s="35"/>
+      <c r="F3" s="30"/>
     </row>
     <row r="4" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F4" s="35"/>
+      <c r="F4" s="30"/>
     </row>
     <row r="5" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F5" s="35"/>
+      <c r="F5" s="30"/>
     </row>
     <row r="6" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F6" s="35"/>
+      <c r="F6" s="30"/>
     </row>
     <row r="7" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F7" s="35"/>
+      <c r="F7" s="30"/>
     </row>
     <row r="8" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F8" s="35"/>
+      <c r="F8" s="30"/>
     </row>
     <row r="9" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F9" s="35"/>
+      <c r="F9" s="30"/>
     </row>
     <row r="10" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F10" s="35"/>
+      <c r="F10" s="30"/>
     </row>
     <row r="11" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F11" s="35"/>
+      <c r="F11" s="30"/>
     </row>
     <row r="12" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F12" s="35"/>
+      <c r="F12" s="30"/>
     </row>
     <row r="13" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F13" s="35"/>
+      <c r="F13" s="30"/>
     </row>
     <row r="14" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F14" s="35"/>
+      <c r="F14" s="30"/>
     </row>
     <row r="15" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F15" s="35"/>
+      <c r="F15" s="30"/>
     </row>
     <row r="16" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F16" s="35"/>
+      <c r="F16" s="30"/>
     </row>
     <row r="17" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F17" s="35"/>
+      <c r="F17" s="30"/>
     </row>
     <row r="18" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F18" s="35"/>
+      <c r="F18" s="30"/>
     </row>
     <row r="19" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F19" s="35"/>
+      <c r="F19" s="30"/>
     </row>
     <row r="20" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F20" s="35"/>
+      <c r="F20" s="30"/>
     </row>
     <row r="21" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F21" s="35"/>
+      <c r="F21" s="30"/>
     </row>
     <row r="22" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F22" s="35"/>
+      <c r="F22" s="30"/>
     </row>
     <row r="23" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F23" s="35"/>
+      <c r="F23" s="30"/>
     </row>
     <row r="24" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F24" s="35"/>
+      <c r="F24" s="30"/>
     </row>
     <row r="25" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F25" s="35"/>
+      <c r="F25" s="30"/>
     </row>
     <row r="26" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F26" s="35"/>
+      <c r="F26" s="30"/>
     </row>
     <row r="27" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F27" s="35"/>
+      <c r="F27" s="30"/>
     </row>
     <row r="28" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F28" s="35"/>
+      <c r="F28" s="30"/>
     </row>
     <row r="29" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F29" s="35"/>
+      <c r="F29" s="30"/>
     </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -5540,52 +5515,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:F2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="35" customWidth="1"/>
-    <col min="2" max="2" width="31.85546875" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" customWidth="1"/>
-    <col min="5" max="6" width="13" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="C1" s="30" t="s">
-        <v>304</v>
-      </c>
-      <c r="E1" s="31">
-        <v>15072</v>
-      </c>
-      <c r="F1" s="32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="33" t="s">
-        <v>305</v>
-      </c>
-      <c r="B2" s="34">
-        <v>45</v>
-      </c>
-      <c r="C2" s="32">
-        <v>2.975796852268218E-3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>
--- a/SOLEDADE.xlsx
+++ b/SOLEDADE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gera-fichas\Comarcas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FB8E47C6-E8A4-49A0-8DD8-EDA21D178339}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CE3CE1A8-3691-4E24-8D8A-88836B0F315A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1205,7 +1205,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="1" xr:uid="{948A7B2F-3EA4-49A2-B8B3-179565841593}"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{633D19B7-4F54-4F20-8189-06CE02FA5437}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1235,10 +1235,10 @@
         <xdr:cNvPr id="2" name="Chart1" title="Gráfico">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{179AF14C-6284-4D1C-8C39-CFC12374156E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A85EE5D-AC2B-4CE1-A55D-C95E406D9A78}"/>
             </a:ext>
             <a:ext uri="GoogleSheetsCustomDataVersion1">
-              <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" pictureOfChart="1"/>
+              <go:sheetsCustomData xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:go="http://customooxmlschemas.google.com/" pictureOfChart="1"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1276,7 +1276,7 @@
         <xdr:cNvPr id="3" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F83C3E0-9DFD-4CE4-9A87-2A1B8A2532A9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{644356BD-095E-46EB-8732-0AF7C2A839EA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1339,7 +1339,7 @@
         <xdr:cNvPr id="4" name="Shape 2" title="Desenho">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C2FC86E-FCC9-4A9C-808E-6DF921D90BB1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{63C8128A-A3D6-49AC-8916-0E9F554ED38E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1358,7 +1358,7 @@
           <xdr:cNvPr id="5" name="Shape 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{23DAAA63-E0EE-457F-7306-24B212883879}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DCC2BAC2-7587-F8EE-C39F-6FFD6BA3D861}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1407,7 +1407,7 @@
           <xdr:cNvPr id="6" name="Shape 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1F17500-439F-A684-A98D-E41A211003A0}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{715B7E5A-F3DD-2749-833C-18372020A735}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1426,7 +1426,7 @@
             <xdr:cNvPr id="7" name="Shape 6">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17160152-0474-5B81-C109-D0BCDF0EB246}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE0FD6F7-213E-DB3F-E3E7-A90EC6EA5779}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1457,7 +1457,7 @@
             <xdr:cNvPr id="8" name="Shape 7">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2322F87B-8959-D25F-EC76-B44A034989ED}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{970BBAAC-D5BE-B07F-8E9B-D2433EEE93E6}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1488,7 +1488,7 @@
             <xdr:cNvPr id="9" name="Shape 8">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{90611D6B-1BFE-9A65-DA11-B1F20257887B}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18031414-0C15-A817-DFE0-09EC8CCC4A77}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1531,7 +1531,7 @@
         <xdr:cNvPr id="10" name="image2.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75E01364-44CB-4FBA-932D-659BC5DF7D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D90913C6-2B5F-4D43-8B87-EB15B0161C5E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1569,7 +1569,7 @@
         <xdr:cNvPr id="11" name="image1.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14724B10-DD0F-4CBB-8AA9-807CB7944E01}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B9295584-8E1C-4A58-AD0D-107EA30A1B4A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1594,50 +1594,6 @@
     </xdr:pic>
     <xdr:clientData fLocksWithSheet="0"/>
   </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>315640</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>143650</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="Imagem 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7388EE64-355D-40D9-B16C-1DB837A9218F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1485900" y="6219825"/>
-          <a:ext cx="9421540" cy="4525150"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1925,7 +1881,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A4771CF-4835-4232-A81E-2BA7155ECA4B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F30040C7-E975-49D0-9CCC-A0C42C8ABA4E}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
